--- a/assets/paydoc.xlsx
+++ b/assets/paydoc.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ItzArg\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ItzArg\Desktop\ahapi\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E51D392-227A-419F-8CB9-A293CBF6296F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3709BDBD-1180-4324-977C-7CBF81062649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>OOO "AnimalHouse"</t>
   </si>
@@ -79,9 +79,6 @@
     <t>Стоимость</t>
   </si>
   <si>
-    <t>Кол-во</t>
-  </si>
-  <si>
     <t>200Р\сутки</t>
   </si>
   <si>
@@ -89,18 +86,6 @@
   </si>
   <si>
     <t>150Р\сутки</t>
-  </si>
-  <si>
-    <t>SERVICE1COUNT</t>
-  </si>
-  <si>
-    <t>SERVICE2COUNT</t>
-  </si>
-  <si>
-    <t>SERVICE3COUNT</t>
-  </si>
-  <si>
-    <t>SERVICE4COUNT</t>
   </si>
   <si>
     <t>Проживание в номере гостиницы без оказания доп услуг</t>
@@ -152,7 +137,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -201,16 +186,99 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -220,10 +288,49 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -542,7 +649,7 @@
   <dimension ref="B1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -560,260 +667,246 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="1"/>
-      <c r="C6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="2:8" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" spans="2:8" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="2:8" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="8" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="2:8" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="2:8" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="2:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="2:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="10">
+        <v>500</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="2:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="2:8" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="8" t="s">
+      <c r="E17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="2:8" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="8" t="s">
+      <c r="F17" s="4"/>
+      <c r="G17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="2:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="6">
-        <v>500</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="2:8" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="2:8" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="H17" s="4"/>
     </row>
     <row r="18" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="2:8" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="2:8" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F8:G9"/>
-    <mergeCell ref="F10:G11"/>
-    <mergeCell ref="F12:G13"/>
-    <mergeCell ref="F14:G15"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
+  <mergeCells count="28">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D13:E14"/>
+    <mergeCell ref="D15:E16"/>
     <mergeCell ref="E5:H5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="D3:H3"/>
     <mergeCell ref="D4:H4"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B12:C13"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="D12:E13"/>
-    <mergeCell ref="D14:E15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="D8:E9"/>
-    <mergeCell ref="D10:E11"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="B11:C12"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H10"/>
+    <mergeCell ref="F11:H12"/>
+    <mergeCell ref="F13:H14"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="G17:H17"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="0.44" bottom="0.44" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/assets/paydoc.xlsx
+++ b/assets/paydoc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ItzArg\Desktop\ahapi\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3709BDBD-1180-4324-977C-7CBF81062649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B15438-9172-4203-9F52-84314BEBE141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>OOO "AnimalHouse"</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>Итого: TOTALPRICE</t>
+  </si>
+  <si>
+    <t>Номер комнаты: ROOMNUMBER</t>
   </si>
 </sst>
 </file>
@@ -282,13 +285,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -316,21 +334,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -649,7 +652,7 @@
   <dimension ref="B1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -667,211 +670,213 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="17" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="18"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="2:8" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="7" t="s">
+      <c r="E8" s="10"/>
+      <c r="F8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" spans="2:8" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="6" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="10" t="s">
+      <c r="E9" s="8"/>
+      <c r="F9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="20"/>
     </row>
     <row r="11" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="6" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="10" t="s">
+      <c r="E11" s="8"/>
+      <c r="F11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="12"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12" spans="2:8" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20"/>
     </row>
     <row r="13" spans="2:8" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="6" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="10" t="s">
+      <c r="E13" s="8"/>
+      <c r="F13" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="12"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="2:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="20"/>
     </row>
     <row r="15" spans="2:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="6" t="s">
+      <c r="C15" s="5"/>
+      <c r="D15" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="10">
+      <c r="E15" s="8"/>
+      <c r="F15" s="15">
         <v>500</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="12"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="17"/>
     </row>
     <row r="16" spans="2:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="15"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20"/>
     </row>
     <row r="17" spans="2:8" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="5"/>
       <c r="D17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4" t="s">
+      <c r="F17" s="5"/>
+      <c r="G17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="4"/>
+      <c r="H17" s="5"/>
     </row>
     <row r="18" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="2:8" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -879,6 +884,20 @@
     <row r="21" spans="2:8" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="B11:C12"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H10"/>
+    <mergeCell ref="F11:H12"/>
+    <mergeCell ref="F13:H14"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="G17:H17"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C5:D5"/>
@@ -893,20 +912,6 @@
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="D3:H3"/>
     <mergeCell ref="D4:H4"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="B11:C12"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H10"/>
-    <mergeCell ref="F11:H12"/>
-    <mergeCell ref="F13:H14"/>
-    <mergeCell ref="F15:H16"/>
-    <mergeCell ref="G17:H17"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="0.44" bottom="0.44" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
